--- a/data_rosemount/Leaf Phyllochron 1-2.xlsx
+++ b/data_rosemount/Leaf Phyllochron 1-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mauricio Mantoani\Desktop\Postdoc PhenoGrass\Data Google Drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90DCE47-CC96-4AD2-B000-47A8D36CB5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB2E46D-2EC6-440F-B4B7-37DEDBD08CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B773E780-A04F-4A80-96D4-BDCCA2CAF818}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="25">
   <si>
     <t>Plant ID</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
   </si>
   <si>
     <t>Moy</t>
@@ -495,13 +492,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70E69916-E324-4502-B85F-FFEB43025A4E}">
-  <dimension ref="A1:J337"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C238" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F239" sqref="F239"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -514,11 +511,10 @@
     <col min="6" max="7" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.81640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.81640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="1"/>
+    <col min="10" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -546,19 +542,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -578,17 +571,16 @@
       <c r="I2" s="2">
         <v>6</v>
       </c>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -608,17 +600,16 @@
       <c r="I3" s="1">
         <v>6</v>
       </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -638,17 +629,16 @@
       <c r="I4" s="1">
         <v>6</v>
       </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -668,17 +658,16 @@
       <c r="I5" s="1">
         <v>6</v>
       </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -698,17 +687,16 @@
       <c r="I6" s="1">
         <v>6</v>
       </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -728,17 +716,16 @@
       <c r="I7" s="2">
         <v>6</v>
       </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -758,17 +745,16 @@
       <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -788,17 +774,16 @@
       <c r="I9" s="1">
         <v>6</v>
       </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -818,17 +803,16 @@
       <c r="I10" s="1">
         <v>6</v>
       </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
@@ -848,17 +832,16 @@
       <c r="I11" s="2">
         <v>6</v>
       </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -878,17 +861,16 @@
       <c r="I12" s="1">
         <v>6</v>
       </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -908,17 +890,16 @@
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -938,17 +919,16 @@
       <c r="I14" s="1">
         <v>6</v>
       </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -968,17 +948,16 @@
       <c r="I15" s="1">
         <v>6</v>
       </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -998,17 +977,16 @@
       <c r="I16" s="1">
         <v>6</v>
       </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -1028,17 +1006,16 @@
       <c r="I17" s="1">
         <v>6</v>
       </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -1058,17 +1035,16 @@
       <c r="I18" s="1">
         <v>6</v>
       </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -1088,17 +1064,16 @@
       <c r="I19" s="1">
         <v>6</v>
       </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
@@ -1118,17 +1093,16 @@
       <c r="I20" s="1">
         <v>6</v>
       </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -1148,17 +1122,16 @@
       <c r="I21" s="1">
         <v>6</v>
       </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -1178,17 +1151,16 @@
       <c r="I22" s="1">
         <v>6</v>
       </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -1208,17 +1180,16 @@
       <c r="I23" s="1">
         <v>6</v>
       </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1238,17 +1209,16 @@
       <c r="I24" s="1">
         <v>6</v>
       </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -1268,17 +1238,16 @@
       <c r="I25" s="1">
         <v>6</v>
       </c>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -1298,17 +1267,16 @@
       <c r="I26" s="2">
         <v>6</v>
       </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
@@ -1328,17 +1296,16 @@
       <c r="I27" s="1">
         <v>6</v>
       </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -1358,17 +1325,16 @@
       <c r="I28" s="1">
         <v>6</v>
       </c>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1388,17 +1354,16 @@
       <c r="I29" s="1">
         <v>6</v>
       </c>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -1418,17 +1383,16 @@
       <c r="I30" s="1">
         <v>6</v>
       </c>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1448,17 +1412,16 @@
       <c r="I31" s="1">
         <v>6</v>
       </c>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -1478,17 +1441,16 @@
       <c r="I32" s="1">
         <v>6</v>
       </c>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -1508,17 +1470,16 @@
       <c r="I33" s="1">
         <v>6</v>
       </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -1538,17 +1499,16 @@
       <c r="I34" s="1">
         <v>6</v>
       </c>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -1568,17 +1528,16 @@
       <c r="I35" s="1">
         <v>6</v>
       </c>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -1598,17 +1557,16 @@
       <c r="I36" s="1">
         <v>6</v>
       </c>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -1628,17 +1586,16 @@
       <c r="I37" s="1">
         <v>6</v>
       </c>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -1658,17 +1615,16 @@
       <c r="I38" s="1">
         <v>6</v>
       </c>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
@@ -1688,17 +1644,16 @@
       <c r="I39" s="1">
         <v>6</v>
       </c>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
@@ -1718,17 +1673,16 @@
       <c r="I40" s="1">
         <v>6</v>
       </c>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -1748,17 +1702,16 @@
       <c r="I41" s="1">
         <v>6</v>
       </c>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -1778,17 +1731,16 @@
       <c r="I42" s="1">
         <v>6</v>
       </c>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -1808,17 +1760,16 @@
       <c r="I43" s="1">
         <v>6</v>
       </c>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -1838,17 +1789,16 @@
       <c r="I44" s="1">
         <v>6</v>
       </c>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
@@ -1868,17 +1818,16 @@
       <c r="I45" s="1">
         <v>6</v>
       </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
@@ -1898,17 +1847,16 @@
       <c r="I46" s="1">
         <v>6</v>
       </c>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -1928,17 +1876,16 @@
       <c r="I47" s="1">
         <v>6</v>
       </c>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -1958,17 +1905,16 @@
       <c r="I48" s="1">
         <v>6</v>
       </c>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
@@ -1988,17 +1934,16 @@
       <c r="I49" s="1">
         <v>6</v>
       </c>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
@@ -2018,17 +1963,16 @@
       <c r="I50" s="1">
         <v>6</v>
       </c>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
@@ -2048,17 +1992,16 @@
       <c r="I51" s="1">
         <v>6</v>
       </c>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
@@ -2078,17 +2021,16 @@
       <c r="I52" s="1">
         <v>6</v>
       </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -2108,17 +2050,16 @@
       <c r="I53" s="1">
         <v>6</v>
       </c>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2">
         <v>1</v>
@@ -2138,17 +2079,16 @@
       <c r="I54" s="2">
         <v>6</v>
       </c>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -2168,17 +2108,16 @@
       <c r="I55" s="1">
         <v>6</v>
       </c>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -2198,17 +2137,16 @@
       <c r="I56" s="1">
         <v>6</v>
       </c>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
@@ -2228,17 +2166,16 @@
       <c r="I57" s="1">
         <v>6</v>
       </c>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D58" s="2">
         <v>1</v>
@@ -2258,17 +2195,16 @@
       <c r="I58" s="2">
         <v>6</v>
       </c>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
@@ -2288,17 +2224,16 @@
       <c r="I59" s="1">
         <v>6</v>
       </c>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -2318,17 +2253,16 @@
       <c r="I60" s="1">
         <v>6</v>
       </c>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -2348,17 +2282,16 @@
       <c r="I61" s="1">
         <v>6</v>
       </c>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -2378,17 +2311,16 @@
       <c r="I62" s="1">
         <v>6</v>
       </c>
-      <c r="J62" s="6"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -2408,17 +2340,16 @@
       <c r="I63" s="1">
         <v>6</v>
       </c>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -2438,17 +2369,16 @@
       <c r="I64" s="1">
         <v>6</v>
       </c>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -2468,17 +2398,16 @@
       <c r="I65" s="1">
         <v>6</v>
       </c>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -2498,17 +2427,16 @@
       <c r="I66" s="1">
         <v>6</v>
       </c>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
@@ -2528,17 +2456,16 @@
       <c r="I67" s="1">
         <v>6</v>
       </c>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
@@ -2558,17 +2485,16 @@
       <c r="I68" s="2">
         <v>6</v>
       </c>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -2588,17 +2514,16 @@
       <c r="I69" s="1">
         <v>6</v>
       </c>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -2618,17 +2543,16 @@
       <c r="I70" s="1">
         <v>6</v>
       </c>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
@@ -2648,17 +2572,16 @@
       <c r="I71" s="1">
         <v>6</v>
       </c>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -2678,17 +2601,16 @@
       <c r="I72" s="1">
         <v>6</v>
       </c>
-      <c r="J72" s="6"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -2708,17 +2630,16 @@
       <c r="I73" s="1">
         <v>6</v>
       </c>
-      <c r="J73" s="6"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -2738,17 +2659,16 @@
       <c r="I74" s="1">
         <v>6</v>
       </c>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -2768,17 +2688,16 @@
       <c r="I75" s="1">
         <v>6</v>
       </c>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -2798,17 +2717,16 @@
       <c r="I76" s="1">
         <v>6</v>
       </c>
-      <c r="J76" s="6"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -2828,17 +2746,16 @@
       <c r="I77" s="1">
         <v>6</v>
       </c>
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
@@ -2858,17 +2775,16 @@
       <c r="I78" s="1">
         <v>6</v>
       </c>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -2888,17 +2804,16 @@
       <c r="I79" s="1">
         <v>6</v>
       </c>
-      <c r="J79" s="6"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -2918,17 +2833,16 @@
       <c r="I80" s="1">
         <v>6</v>
       </c>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="2">
         <v>1</v>
@@ -2948,17 +2862,16 @@
       <c r="I81" s="2">
         <v>6</v>
       </c>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2978,17 +2891,16 @@
       <c r="I82" s="1">
         <v>6</v>
       </c>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -3008,17 +2920,16 @@
       <c r="I83" s="1">
         <v>6</v>
       </c>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -3038,17 +2949,16 @@
       <c r="I84" s="1">
         <v>6</v>
       </c>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -3068,17 +2978,16 @@
       <c r="I85" s="1">
         <v>6</v>
       </c>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D86" s="2">
         <v>7</v>
@@ -3098,17 +3007,16 @@
       <c r="I86" s="2">
         <v>6</v>
       </c>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1">
         <v>7</v>
@@ -3128,17 +3036,16 @@
       <c r="I87" s="1">
         <v>6</v>
       </c>
-      <c r="J87" s="6"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1">
         <v>7</v>
@@ -3158,17 +3065,16 @@
       <c r="I88" s="1">
         <v>6</v>
       </c>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
         <v>7</v>
@@ -3188,17 +3094,16 @@
       <c r="I89" s="1">
         <v>6</v>
       </c>
-      <c r="J89" s="6"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1">
         <v>7</v>
@@ -3218,17 +3123,16 @@
       <c r="I90" s="1">
         <v>6</v>
       </c>
-      <c r="J90" s="6"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1">
         <v>7</v>
@@ -3248,17 +3152,16 @@
       <c r="I91" s="1">
         <v>6</v>
       </c>
-      <c r="J91" s="6"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1">
         <v>7</v>
@@ -3278,17 +3181,16 @@
       <c r="I92" s="1">
         <v>6</v>
       </c>
-      <c r="J92" s="6"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1">
         <v>7</v>
@@ -3308,17 +3210,16 @@
       <c r="I93" s="1">
         <v>6</v>
       </c>
-      <c r="J93" s="6"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1">
         <v>7</v>
@@ -3338,17 +3239,16 @@
       <c r="I94" s="1">
         <v>6</v>
       </c>
-      <c r="J94" s="6"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D95" s="1">
         <v>7</v>
@@ -3368,17 +3268,16 @@
       <c r="I95" s="1">
         <v>6</v>
       </c>
-      <c r="J95" s="6"/>
-    </row>
-    <row r="96" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2">
         <v>7</v>
@@ -3398,17 +3297,16 @@
       <c r="I96" s="2">
         <v>6</v>
       </c>
-      <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D97" s="1">
         <v>7</v>
@@ -3428,17 +3326,16 @@
       <c r="I97" s="1">
         <v>6</v>
       </c>
-      <c r="J97" s="6"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D98" s="1">
         <v>7</v>
@@ -3458,17 +3355,16 @@
       <c r="I98" s="1">
         <v>6</v>
       </c>
-      <c r="J98" s="6"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D99" s="1">
         <v>7</v>
@@ -3488,17 +3384,16 @@
       <c r="I99" s="1">
         <v>6</v>
       </c>
-      <c r="J99" s="6"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D100" s="1">
         <v>7</v>
@@ -3518,17 +3413,16 @@
       <c r="I100" s="1">
         <v>6</v>
       </c>
-      <c r="J100" s="6"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D101" s="1">
         <v>7</v>
@@ -3548,17 +3442,16 @@
       <c r="I101" s="1">
         <v>6</v>
       </c>
-      <c r="J101" s="6"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="1">
         <v>7</v>
@@ -3578,17 +3471,16 @@
       <c r="I102" s="1">
         <v>6</v>
       </c>
-      <c r="J102" s="6"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D103" s="1">
         <v>7</v>
@@ -3608,17 +3500,16 @@
       <c r="I103" s="1">
         <v>6</v>
       </c>
-      <c r="J103" s="6"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1">
         <v>7</v>
@@ -3638,17 +3529,16 @@
       <c r="I104" s="1">
         <v>6</v>
       </c>
-      <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1">
         <v>7</v>
@@ -3668,17 +3558,16 @@
       <c r="I105" s="1">
         <v>6</v>
       </c>
-      <c r="J105" s="6"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1">
         <v>7</v>
@@ -3698,17 +3587,16 @@
       <c r="I106" s="1">
         <v>6</v>
       </c>
-      <c r="J106" s="6"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D107" s="1">
         <v>7</v>
@@ -3728,17 +3616,16 @@
       <c r="I107" s="1">
         <v>6</v>
       </c>
-      <c r="J107" s="6"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D108" s="1">
         <v>7</v>
@@ -3758,17 +3645,16 @@
       <c r="I108" s="1">
         <v>6</v>
       </c>
-      <c r="J108" s="6"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D109" s="1">
         <v>7</v>
@@ -3788,17 +3674,16 @@
       <c r="I109" s="1">
         <v>6</v>
       </c>
-      <c r="J109" s="6"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D110" s="1">
         <v>7</v>
@@ -3818,17 +3703,16 @@
       <c r="I110" s="1">
         <v>6</v>
       </c>
-      <c r="J110" s="6"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D111" s="1">
         <v>7</v>
@@ -3848,17 +3732,16 @@
       <c r="I111" s="1">
         <v>6</v>
       </c>
-      <c r="J111" s="6"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D112" s="1">
         <v>7</v>
@@ -3878,17 +3761,16 @@
       <c r="I112" s="1">
         <v>6</v>
       </c>
-      <c r="J112" s="6"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D113" s="1">
         <v>7</v>
@@ -3908,17 +3790,16 @@
       <c r="I113" s="1">
         <v>6</v>
       </c>
-      <c r="J113" s="6"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1">
         <v>7</v>
@@ -3938,17 +3819,16 @@
       <c r="I114" s="1">
         <v>6</v>
       </c>
-      <c r="J114" s="6"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D115" s="1">
         <v>7</v>
@@ -3968,17 +3848,16 @@
       <c r="I115" s="1">
         <v>6</v>
       </c>
-      <c r="J115" s="6"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1">
         <v>7</v>
@@ -3998,17 +3877,16 @@
       <c r="I116" s="1">
         <v>6</v>
       </c>
-      <c r="J116" s="6"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1">
         <v>7</v>
@@ -4028,17 +3906,16 @@
       <c r="I117" s="1">
         <v>6</v>
       </c>
-      <c r="J117" s="6"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1">
         <v>7</v>
@@ -4058,17 +3935,16 @@
       <c r="I118" s="1">
         <v>6</v>
       </c>
-      <c r="J118" s="6"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D119" s="1">
         <v>7</v>
@@ -4088,17 +3964,16 @@
       <c r="I119" s="1">
         <v>6</v>
       </c>
-      <c r="J119" s="6"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D120" s="1">
         <v>7</v>
@@ -4118,17 +3993,16 @@
       <c r="I120" s="1">
         <v>6</v>
       </c>
-      <c r="J120" s="6"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D121" s="1">
         <v>7</v>
@@ -4148,17 +4022,16 @@
       <c r="I121" s="1">
         <v>6</v>
       </c>
-      <c r="J121" s="6"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D122" s="1">
         <v>7</v>
@@ -4178,17 +4051,16 @@
       <c r="I122" s="1">
         <v>6</v>
       </c>
-      <c r="J122" s="6"/>
-    </row>
-    <row r="123" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D123" s="2">
         <v>7</v>
@@ -4208,17 +4080,16 @@
       <c r="I123" s="2">
         <v>6</v>
       </c>
-      <c r="J123" s="4"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D124" s="1">
         <v>7</v>
@@ -4238,17 +4109,16 @@
       <c r="I124" s="1">
         <v>6</v>
       </c>
-      <c r="J124" s="6"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D125" s="1">
         <v>7</v>
@@ -4268,17 +4138,16 @@
       <c r="I125" s="1">
         <v>6</v>
       </c>
-      <c r="J125" s="6"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D126" s="1">
         <v>7</v>
@@ -4298,17 +4167,16 @@
       <c r="I126" s="1">
         <v>6</v>
       </c>
-      <c r="J126" s="6"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D127" s="1">
         <v>7</v>
@@ -4328,17 +4196,16 @@
       <c r="I127" s="1">
         <v>6</v>
       </c>
-      <c r="J127" s="6"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1">
         <v>7</v>
@@ -4358,17 +4225,16 @@
       <c r="I128" s="1">
         <v>6</v>
       </c>
-      <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1">
         <v>7</v>
@@ -4388,17 +4254,16 @@
       <c r="I129" s="1">
         <v>6</v>
       </c>
-      <c r="J129" s="6"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1">
         <v>7</v>
@@ -4418,17 +4283,16 @@
       <c r="I130" s="1">
         <v>6</v>
       </c>
-      <c r="J130" s="6"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D131" s="1">
         <v>7</v>
@@ -4448,17 +4312,16 @@
       <c r="I131" s="1">
         <v>6</v>
       </c>
-      <c r="J131" s="6"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D132" s="1">
         <v>7</v>
@@ -4478,17 +4341,16 @@
       <c r="I132" s="1">
         <v>6</v>
       </c>
-      <c r="J132" s="6"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D133" s="1">
         <v>7</v>
@@ -4508,17 +4370,16 @@
       <c r="I133" s="1">
         <v>6</v>
       </c>
-      <c r="J133" s="6"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D134" s="1">
         <v>7</v>
@@ -4538,17 +4399,16 @@
       <c r="I134" s="1">
         <v>6</v>
       </c>
-      <c r="J134" s="6"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D135" s="1">
         <v>7</v>
@@ -4568,17 +4428,16 @@
       <c r="I135" s="1">
         <v>6</v>
       </c>
-      <c r="J135" s="6"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D136" s="1">
         <v>7</v>
@@ -4598,17 +4457,16 @@
       <c r="I136" s="1">
         <v>6</v>
       </c>
-      <c r="J136" s="6"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D137" s="1">
         <v>7</v>
@@ -4628,17 +4486,16 @@
       <c r="I137" s="1">
         <v>6</v>
       </c>
-      <c r="J137" s="6"/>
-    </row>
-    <row r="138" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D138" s="2">
         <v>7</v>
@@ -4658,17 +4515,16 @@
       <c r="I138" s="2">
         <v>6</v>
       </c>
-      <c r="J138" s="4"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D139" s="1">
         <v>7</v>
@@ -4688,17 +4544,16 @@
       <c r="I139" s="1">
         <v>6</v>
       </c>
-      <c r="J139" s="6"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D140" s="1">
         <v>7</v>
@@ -4718,17 +4573,16 @@
       <c r="I140" s="1">
         <v>6</v>
       </c>
-      <c r="J140" s="6"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D141" s="1">
         <v>7</v>
@@ -4748,17 +4602,16 @@
       <c r="I141" s="1">
         <v>6</v>
       </c>
-      <c r="J141" s="6"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D142" s="1">
         <v>7</v>
@@ -4778,17 +4631,16 @@
       <c r="I142" s="1">
         <v>6</v>
       </c>
-      <c r="J142" s="6"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D143" s="1">
         <v>7</v>
@@ -4808,17 +4660,16 @@
       <c r="I143" s="1">
         <v>6</v>
       </c>
-      <c r="J143" s="6"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D144" s="1">
         <v>7</v>
@@ -4838,17 +4689,16 @@
       <c r="I144" s="1">
         <v>6</v>
       </c>
-      <c r="J144" s="6"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D145" s="1">
         <v>7</v>
@@ -4868,17 +4718,16 @@
       <c r="I145" s="1">
         <v>6</v>
       </c>
-      <c r="J145" s="6"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D146" s="1">
         <v>7</v>
@@ -4898,17 +4747,16 @@
       <c r="I146" s="1">
         <v>6</v>
       </c>
-      <c r="J146" s="6"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D147" s="1">
         <v>7</v>
@@ -4928,17 +4776,16 @@
       <c r="I147" s="1">
         <v>6</v>
       </c>
-      <c r="J147" s="6"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D148" s="1">
         <v>7</v>
@@ -4958,17 +4805,16 @@
       <c r="I148" s="1">
         <v>6</v>
       </c>
-      <c r="J148" s="6"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D149" s="1">
         <v>7</v>
@@ -4988,17 +4834,16 @@
       <c r="I149" s="1">
         <v>6</v>
       </c>
-      <c r="J149" s="6"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D150" s="1">
         <v>7</v>
@@ -5018,17 +4863,16 @@
       <c r="I150" s="1">
         <v>6</v>
       </c>
-      <c r="J150" s="6"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D151" s="1">
         <v>7</v>
@@ -5048,17 +4892,16 @@
       <c r="I151" s="1">
         <v>6</v>
       </c>
-      <c r="J151" s="6"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D152" s="1">
         <v>7</v>
@@ -5078,17 +4921,16 @@
       <c r="I152" s="1">
         <v>6</v>
       </c>
-      <c r="J152" s="6"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D153" s="1">
         <v>7</v>
@@ -5108,17 +4950,16 @@
       <c r="I153" s="1">
         <v>6</v>
       </c>
-      <c r="J153" s="6"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D154" s="1">
         <v>7</v>
@@ -5138,17 +4979,16 @@
       <c r="I154" s="1">
         <v>6</v>
       </c>
-      <c r="J154" s="6"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D155" s="1">
         <v>7</v>
@@ -5168,17 +5008,16 @@
       <c r="I155" s="1">
         <v>6</v>
       </c>
-      <c r="J155" s="6"/>
-    </row>
-    <row r="156" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D156" s="2">
         <v>7</v>
@@ -5198,17 +5037,16 @@
       <c r="I156" s="2">
         <v>6</v>
       </c>
-      <c r="J156" s="4"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D157" s="1">
         <v>7</v>
@@ -5228,17 +5066,16 @@
       <c r="I157" s="1">
         <v>6</v>
       </c>
-      <c r="J157" s="6"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D158" s="1">
         <v>7</v>
@@ -5258,17 +5095,16 @@
       <c r="I158" s="1">
         <v>6</v>
       </c>
-      <c r="J158" s="6"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D159" s="1">
         <v>7</v>
@@ -5288,17 +5124,16 @@
       <c r="I159" s="1">
         <v>6</v>
       </c>
-      <c r="J159" s="6"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D160" s="1">
         <v>7</v>
@@ -5318,17 +5153,16 @@
       <c r="I160" s="1">
         <v>6</v>
       </c>
-      <c r="J160" s="6"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D161" s="1">
         <v>7</v>
@@ -5348,17 +5182,16 @@
       <c r="I161" s="1">
         <v>6</v>
       </c>
-      <c r="J161" s="6"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D162" s="1">
         <v>7</v>
@@ -5378,17 +5211,16 @@
       <c r="I162" s="1">
         <v>6</v>
       </c>
-      <c r="J162" s="6"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D163" s="1">
         <v>7</v>
@@ -5408,17 +5240,16 @@
       <c r="I163" s="1">
         <v>6</v>
       </c>
-      <c r="J163" s="6"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D164" s="1">
         <v>7</v>
@@ -5438,17 +5269,16 @@
       <c r="I164" s="1">
         <v>6</v>
       </c>
-      <c r="J164" s="6"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D165" s="1">
         <v>7</v>
@@ -5468,17 +5298,16 @@
       <c r="I165" s="1">
         <v>6</v>
       </c>
-      <c r="J165" s="6"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D166" s="1">
         <v>7</v>
@@ -5498,17 +5327,16 @@
       <c r="I166" s="1">
         <v>6</v>
       </c>
-      <c r="J166" s="6"/>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D167" s="1">
         <v>7</v>
@@ -5528,17 +5356,16 @@
       <c r="I167" s="1">
         <v>6</v>
       </c>
-      <c r="J167" s="6"/>
-    </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D168" s="1">
         <v>7</v>
@@ -5558,17 +5385,16 @@
       <c r="I168" s="1">
         <v>6</v>
       </c>
-      <c r="J168" s="6"/>
-    </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D169" s="1">
         <v>7</v>
@@ -5588,17 +5414,16 @@
       <c r="I169" s="1">
         <v>6</v>
       </c>
-      <c r="J169" s="6"/>
-    </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D170" s="1">
         <v>2</v>
@@ -5618,17 +5443,16 @@
       <c r="I170" s="1">
         <v>6</v>
       </c>
-      <c r="J170" s="6"/>
-    </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D171" s="1">
         <v>2</v>
@@ -5648,17 +5472,16 @@
       <c r="I171" s="1">
         <v>6</v>
       </c>
-      <c r="J171" s="6"/>
-    </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D172" s="1">
         <v>2</v>
@@ -5678,17 +5501,16 @@
       <c r="I172" s="1">
         <v>6</v>
       </c>
-      <c r="J172" s="6"/>
-    </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D173" s="1">
         <v>2</v>
@@ -5708,17 +5530,16 @@
       <c r="I173" s="1">
         <v>6</v>
       </c>
-      <c r="J173" s="6"/>
-    </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D174" s="1">
         <v>2</v>
@@ -5738,17 +5559,16 @@
       <c r="I174" s="1">
         <v>6</v>
       </c>
-      <c r="J174" s="6"/>
-    </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D175" s="1">
         <v>2</v>
@@ -5768,17 +5588,16 @@
       <c r="I175" s="1">
         <v>6</v>
       </c>
-      <c r="J175" s="6"/>
-    </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D176" s="1">
         <v>2</v>
@@ -5798,17 +5617,16 @@
       <c r="I176" s="1">
         <v>6</v>
       </c>
-      <c r="J176" s="6"/>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D177" s="1">
         <v>2</v>
@@ -5828,17 +5646,16 @@
       <c r="I177" s="1">
         <v>6</v>
       </c>
-      <c r="J177" s="6"/>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D178" s="1">
         <v>2</v>
@@ -5858,17 +5675,16 @@
       <c r="I178" s="1">
         <v>6</v>
       </c>
-      <c r="J178" s="6"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D179" s="1">
         <v>2</v>
@@ -5888,17 +5704,16 @@
       <c r="I179" s="1">
         <v>6</v>
       </c>
-      <c r="J179" s="6"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D180" s="1">
         <v>2</v>
@@ -5918,17 +5733,16 @@
       <c r="I180" s="1">
         <v>6</v>
       </c>
-      <c r="J180" s="6"/>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D181" s="1">
         <v>2</v>
@@ -5948,17 +5762,16 @@
       <c r="I181" s="1">
         <v>6</v>
       </c>
-      <c r="J181" s="6"/>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D182" s="1">
         <v>2</v>
@@ -5978,17 +5791,16 @@
       <c r="I182" s="1">
         <v>6</v>
       </c>
-      <c r="J182" s="6"/>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D183" s="1">
         <v>2</v>
@@ -6008,17 +5820,16 @@
       <c r="I183" s="1">
         <v>6</v>
       </c>
-      <c r="J183" s="6"/>
-    </row>
-    <row r="184" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D184" s="2">
         <v>2</v>
@@ -6038,17 +5849,16 @@
       <c r="I184" s="2">
         <v>6</v>
       </c>
-      <c r="J184" s="4"/>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D185" s="1">
         <v>2</v>
@@ -6068,17 +5878,16 @@
       <c r="I185" s="1">
         <v>6</v>
       </c>
-      <c r="J185" s="6"/>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D186" s="1">
         <v>2</v>
@@ -6098,17 +5907,16 @@
       <c r="I186" s="1">
         <v>6</v>
       </c>
-      <c r="J186" s="6"/>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D187" s="1">
         <v>2</v>
@@ -6128,17 +5936,16 @@
       <c r="I187" s="1">
         <v>6</v>
       </c>
-      <c r="J187" s="6"/>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D188" s="1">
         <v>2</v>
@@ -6158,17 +5965,16 @@
       <c r="I188" s="1">
         <v>6</v>
       </c>
-      <c r="J188" s="6"/>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D189" s="1">
         <v>2</v>
@@ -6188,17 +5994,16 @@
       <c r="I189" s="1">
         <v>6</v>
       </c>
-      <c r="J189" s="6"/>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D190" s="1">
         <v>2</v>
@@ -6218,17 +6023,16 @@
       <c r="I190" s="1">
         <v>6</v>
       </c>
-      <c r="J190" s="6"/>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D191" s="1">
         <v>2</v>
@@ -6248,17 +6052,16 @@
       <c r="I191" s="1">
         <v>6</v>
       </c>
-      <c r="J191" s="6"/>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D192" s="1">
         <v>2</v>
@@ -6278,17 +6081,16 @@
       <c r="I192" s="1">
         <v>6</v>
       </c>
-      <c r="J192" s="6"/>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D193" s="1">
         <v>2</v>
@@ -6308,17 +6110,16 @@
       <c r="I193" s="1">
         <v>6</v>
       </c>
-      <c r="J193" s="6"/>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D194" s="1">
         <v>2</v>
@@ -6338,17 +6139,16 @@
       <c r="I194" s="1">
         <v>6</v>
       </c>
-      <c r="J194" s="6"/>
-    </row>
-    <row r="195" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D195" s="2">
         <v>2</v>
@@ -6368,17 +6168,16 @@
       <c r="I195" s="2">
         <v>6</v>
       </c>
-      <c r="J195" s="4"/>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D196" s="1">
         <v>2</v>
@@ -6398,17 +6197,16 @@
       <c r="I196" s="1">
         <v>6</v>
       </c>
-      <c r="J196" s="6"/>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D197" s="1">
         <v>2</v>
@@ -6428,17 +6226,16 @@
       <c r="I197" s="1">
         <v>6</v>
       </c>
-      <c r="J197" s="6"/>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D198" s="1">
         <v>2</v>
@@ -6458,17 +6255,16 @@
       <c r="I198" s="1">
         <v>6</v>
       </c>
-      <c r="J198" s="6"/>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D199" s="1">
         <v>2</v>
@@ -6488,17 +6284,16 @@
       <c r="I199" s="1">
         <v>6</v>
       </c>
-      <c r="J199" s="6"/>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" s="1">
         <v>2</v>
@@ -6518,17 +6313,16 @@
       <c r="I200" s="1">
         <v>6</v>
       </c>
-      <c r="J200" s="6"/>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D201" s="1">
         <v>2</v>
@@ -6548,17 +6342,16 @@
       <c r="I201" s="1">
         <v>6</v>
       </c>
-      <c r="J201" s="6"/>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D202" s="1">
         <v>2</v>
@@ -6578,17 +6371,16 @@
       <c r="I202" s="1">
         <v>6</v>
       </c>
-      <c r="J202" s="6"/>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D203" s="1">
         <v>2</v>
@@ -6608,17 +6400,16 @@
       <c r="I203" s="1">
         <v>6</v>
       </c>
-      <c r="J203" s="6"/>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D204" s="1">
         <v>2</v>
@@ -6638,17 +6429,16 @@
       <c r="I204" s="1">
         <v>6</v>
       </c>
-      <c r="J204" s="6"/>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D205" s="1">
         <v>2</v>
@@ -6668,17 +6458,16 @@
       <c r="I205" s="1">
         <v>6</v>
       </c>
-      <c r="J205" s="6"/>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D206" s="1">
         <v>2</v>
@@ -6698,17 +6487,16 @@
       <c r="I206" s="1">
         <v>6</v>
       </c>
-      <c r="J206" s="6"/>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D207" s="1">
         <v>2</v>
@@ -6728,17 +6516,16 @@
       <c r="I207" s="1">
         <v>6</v>
       </c>
-      <c r="J207" s="6"/>
-    </row>
-    <row r="208" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="2">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D208" s="2">
         <v>2</v>
@@ -6758,17 +6545,16 @@
       <c r="I208" s="2">
         <v>6</v>
       </c>
-      <c r="J208" s="4"/>
-    </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D209" s="1">
         <v>2</v>
@@ -6788,17 +6574,16 @@
       <c r="I209" s="1">
         <v>6</v>
       </c>
-      <c r="J209" s="6"/>
-    </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D210" s="1">
         <v>2</v>
@@ -6818,17 +6603,16 @@
       <c r="I210" s="1">
         <v>6</v>
       </c>
-      <c r="J210" s="6"/>
-    </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D211" s="1">
         <v>2</v>
@@ -6848,17 +6632,16 @@
       <c r="I211" s="1">
         <v>6</v>
       </c>
-      <c r="J211" s="6"/>
-    </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D212" s="1">
         <v>2</v>
@@ -6878,17 +6661,16 @@
       <c r="I212" s="1">
         <v>6</v>
       </c>
-      <c r="J212" s="6"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D213" s="1">
         <v>2</v>
@@ -6908,17 +6690,16 @@
       <c r="I213" s="1">
         <v>6</v>
       </c>
-      <c r="J213" s="6"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D214" s="1">
         <v>2</v>
@@ -6938,17 +6719,16 @@
       <c r="I214" s="1">
         <v>6</v>
       </c>
-      <c r="J214" s="6"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D215" s="1">
         <v>2</v>
@@ -6968,17 +6748,16 @@
       <c r="I215" s="1">
         <v>6</v>
       </c>
-      <c r="J215" s="6"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D216" s="1">
         <v>2</v>
@@ -6998,17 +6777,16 @@
       <c r="I216" s="1">
         <v>6</v>
       </c>
-      <c r="J216" s="6"/>
-    </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D217" s="1">
         <v>2</v>
@@ -7028,17 +6806,16 @@
       <c r="I217" s="1">
         <v>6</v>
       </c>
-      <c r="J217" s="6"/>
-    </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D218" s="1">
         <v>2</v>
@@ -7058,17 +6835,16 @@
       <c r="I218" s="1">
         <v>6</v>
       </c>
-      <c r="J218" s="6"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D219" s="1">
         <v>2</v>
@@ -7088,17 +6864,16 @@
       <c r="I219" s="1">
         <v>6</v>
       </c>
-      <c r="J219" s="6"/>
-    </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D220" s="1">
         <v>2</v>
@@ -7118,17 +6893,16 @@
       <c r="I220" s="1">
         <v>6</v>
       </c>
-      <c r="J220" s="6"/>
-    </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D221" s="1">
         <v>2</v>
@@ -7148,17 +6922,16 @@
       <c r="I221" s="1">
         <v>6</v>
       </c>
-      <c r="J221" s="6"/>
-    </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D222" s="1">
         <v>2</v>
@@ -7178,17 +6951,16 @@
       <c r="I222" s="1">
         <v>6</v>
       </c>
-      <c r="J222" s="6"/>
-    </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D223" s="1">
         <v>2</v>
@@ -7208,17 +6980,16 @@
       <c r="I223" s="1">
         <v>6</v>
       </c>
-      <c r="J223" s="6"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D224" s="1">
         <v>2</v>
@@ -7238,17 +7009,16 @@
       <c r="I224" s="1">
         <v>6</v>
       </c>
-      <c r="J224" s="6"/>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D225" s="1">
         <v>2</v>
@@ -7268,17 +7038,16 @@
       <c r="I225" s="1">
         <v>6</v>
       </c>
-      <c r="J225" s="6"/>
-    </row>
-    <row r="226" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="2">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D226" s="2">
         <v>2</v>
@@ -7298,17 +7067,16 @@
       <c r="I226" s="2">
         <v>6</v>
       </c>
-      <c r="J226" s="4"/>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D227" s="1">
         <v>2</v>
@@ -7328,17 +7096,16 @@
       <c r="I227" s="1">
         <v>6</v>
       </c>
-      <c r="J227" s="6"/>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D228" s="1">
         <v>2</v>
@@ -7358,17 +7125,16 @@
       <c r="I228" s="1">
         <v>6</v>
       </c>
-      <c r="J228" s="6"/>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D229" s="1">
         <v>2</v>
@@ -7388,17 +7154,16 @@
       <c r="I229" s="1">
         <v>6</v>
       </c>
-      <c r="J229" s="6"/>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D230" s="1">
         <v>2</v>
@@ -7418,17 +7183,16 @@
       <c r="I230" s="1">
         <v>6</v>
       </c>
-      <c r="J230" s="6"/>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D231" s="1">
         <v>2</v>
@@ -7448,17 +7212,16 @@
       <c r="I231" s="1">
         <v>6</v>
       </c>
-      <c r="J231" s="6"/>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D232" s="1">
         <v>2</v>
@@ -7478,17 +7241,16 @@
       <c r="I232" s="1">
         <v>6</v>
       </c>
-      <c r="J232" s="6"/>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D233" s="1">
         <v>2</v>
@@ -7508,17 +7270,16 @@
       <c r="I233" s="1">
         <v>6</v>
       </c>
-      <c r="J233" s="6"/>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D234" s="1">
         <v>2</v>
@@ -7538,17 +7299,16 @@
       <c r="I234" s="1">
         <v>6</v>
       </c>
-      <c r="J234" s="6"/>
-    </row>
-    <row r="235" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="235" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="2">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D235" s="2">
         <v>2</v>
@@ -7568,17 +7328,16 @@
       <c r="I235" s="2">
         <v>6</v>
       </c>
-      <c r="J235" s="4"/>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D236" s="1">
         <v>2</v>
@@ -7598,17 +7357,16 @@
       <c r="I236" s="1">
         <v>6</v>
       </c>
-      <c r="J236" s="6"/>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D237" s="1">
         <v>2</v>
@@ -7628,17 +7386,16 @@
       <c r="I237" s="1">
         <v>6</v>
       </c>
-      <c r="J237" s="6"/>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D238" s="1">
         <v>2</v>
@@ -7658,17 +7415,16 @@
       <c r="I238" s="1">
         <v>6</v>
       </c>
-      <c r="J238" s="6"/>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D239" s="1">
         <v>2</v>
@@ -7688,17 +7444,16 @@
       <c r="I239" s="1">
         <v>6</v>
       </c>
-      <c r="J239" s="6"/>
-    </row>
-    <row r="240" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="2">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D240" s="2">
         <v>2</v>
@@ -7718,17 +7473,16 @@
       <c r="I240" s="2">
         <v>6</v>
       </c>
-      <c r="J240" s="4"/>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D241" s="1">
         <v>2</v>
@@ -7748,17 +7502,16 @@
       <c r="I241" s="1">
         <v>6</v>
       </c>
-      <c r="J241" s="6"/>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D242" s="1">
         <v>2</v>
@@ -7778,17 +7531,16 @@
       <c r="I242" s="1">
         <v>6</v>
       </c>
-      <c r="J242" s="6"/>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D243" s="1">
         <v>2</v>
@@ -7808,17 +7560,16 @@
       <c r="I243" s="1">
         <v>6</v>
       </c>
-      <c r="J243" s="6"/>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D244" s="1">
         <v>2</v>
@@ -7838,17 +7589,16 @@
       <c r="I244" s="1">
         <v>6</v>
       </c>
-      <c r="J244" s="6"/>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D245" s="1">
         <v>2</v>
@@ -7868,17 +7618,16 @@
       <c r="I245" s="1">
         <v>6</v>
       </c>
-      <c r="J245" s="6"/>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D246" s="1">
         <v>2</v>
@@ -7898,17 +7647,16 @@
       <c r="I246" s="1">
         <v>6</v>
       </c>
-      <c r="J246" s="6"/>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D247" s="1">
         <v>2</v>
@@ -7928,17 +7676,16 @@
       <c r="I247" s="1">
         <v>6</v>
       </c>
-      <c r="J247" s="6"/>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D248" s="1">
         <v>2</v>
@@ -7958,17 +7705,16 @@
       <c r="I248" s="1">
         <v>6</v>
       </c>
-      <c r="J248" s="6"/>
-    </row>
-    <row r="249" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="249" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="2">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D249" s="2">
         <v>2</v>
@@ -7988,17 +7734,16 @@
       <c r="I249" s="2">
         <v>6</v>
       </c>
-      <c r="J249" s="4"/>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D250" s="1">
         <v>2</v>
@@ -8018,17 +7763,16 @@
       <c r="I250" s="1">
         <v>6</v>
       </c>
-      <c r="J250" s="6"/>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D251" s="1">
         <v>2</v>
@@ -8048,17 +7792,16 @@
       <c r="I251" s="1">
         <v>6</v>
       </c>
-      <c r="J251" s="6"/>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D252" s="1">
         <v>2</v>
@@ -8078,17 +7821,16 @@
       <c r="I252" s="1">
         <v>6</v>
       </c>
-      <c r="J252" s="6"/>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D253" s="1">
         <v>2</v>
@@ -8108,17 +7850,16 @@
       <c r="I253" s="1">
         <v>6</v>
       </c>
-      <c r="J253" s="6"/>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D254" s="1">
         <v>8</v>
@@ -8138,17 +7879,16 @@
       <c r="I254" s="1">
         <v>6</v>
       </c>
-      <c r="J254" s="6"/>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D255" s="1">
         <v>8</v>
@@ -8168,17 +7908,16 @@
       <c r="I255" s="1">
         <v>6</v>
       </c>
-      <c r="J255" s="6"/>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D256" s="1">
         <v>8</v>
@@ -8198,17 +7937,16 @@
       <c r="I256" s="1">
         <v>6</v>
       </c>
-      <c r="J256" s="6"/>
-    </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D257" s="1">
         <v>8</v>
@@ -8228,17 +7966,16 @@
       <c r="I257" s="1">
         <v>6</v>
       </c>
-      <c r="J257" s="6"/>
-    </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D258" s="1">
         <v>8</v>
@@ -8258,17 +7995,16 @@
       <c r="I258" s="1">
         <v>6</v>
       </c>
-      <c r="J258" s="6"/>
-    </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D259" s="1">
         <v>8</v>
@@ -8288,17 +8024,16 @@
       <c r="I259" s="1">
         <v>6</v>
       </c>
-      <c r="J259" s="6"/>
-    </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D260" s="1">
         <v>8</v>
@@ -8318,17 +8053,16 @@
       <c r="I260" s="1">
         <v>6</v>
       </c>
-      <c r="J260" s="6"/>
-    </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D261" s="1">
         <v>8</v>
@@ -8348,17 +8082,16 @@
       <c r="I261" s="1">
         <v>6</v>
       </c>
-      <c r="J261" s="6"/>
-    </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D262" s="1">
         <v>8</v>
@@ -8378,17 +8111,16 @@
       <c r="I262" s="1">
         <v>6</v>
       </c>
-      <c r="J262" s="6"/>
-    </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D263" s="1">
         <v>8</v>
@@ -8408,17 +8140,16 @@
       <c r="I263" s="1">
         <v>6</v>
       </c>
-      <c r="J263" s="6"/>
-    </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D264" s="1">
         <v>8</v>
@@ -8438,17 +8169,16 @@
       <c r="I264" s="1">
         <v>6</v>
       </c>
-      <c r="J264" s="6"/>
-    </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D265" s="1">
         <v>8</v>
@@ -8468,17 +8198,16 @@
       <c r="I265" s="1">
         <v>6</v>
       </c>
-      <c r="J265" s="6"/>
-    </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D266" s="1">
         <v>8</v>
@@ -8498,17 +8227,16 @@
       <c r="I266" s="1">
         <v>6</v>
       </c>
-      <c r="J266" s="6"/>
-    </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D267" s="1">
         <v>8</v>
@@ -8528,17 +8256,16 @@
       <c r="I267" s="1">
         <v>6</v>
       </c>
-      <c r="J267" s="6"/>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D268" s="1">
         <v>8</v>
@@ -8558,17 +8285,16 @@
       <c r="I268" s="1">
         <v>6</v>
       </c>
-      <c r="J268" s="6"/>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D269" s="1">
         <v>8</v>
@@ -8588,17 +8314,16 @@
       <c r="I269" s="1">
         <v>6</v>
       </c>
-      <c r="J269" s="6"/>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D270" s="1">
         <v>8</v>
@@ -8618,17 +8343,16 @@
       <c r="I270" s="1">
         <v>6</v>
       </c>
-      <c r="J270" s="6"/>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D271" s="1">
         <v>8</v>
@@ -8648,17 +8372,16 @@
       <c r="I271" s="1">
         <v>6</v>
       </c>
-      <c r="J271" s="6"/>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D272" s="1">
         <v>8</v>
@@ -8678,17 +8401,16 @@
       <c r="I272" s="1">
         <v>6</v>
       </c>
-      <c r="J272" s="6"/>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D273" s="1">
         <v>8</v>
@@ -8708,17 +8430,16 @@
       <c r="I273" s="1">
         <v>6</v>
       </c>
-      <c r="J273" s="6"/>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D274" s="1">
         <v>8</v>
@@ -8738,17 +8459,16 @@
       <c r="I274" s="1">
         <v>6</v>
       </c>
-      <c r="J274" s="6"/>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D275" s="1">
         <v>8</v>
@@ -8768,17 +8488,16 @@
       <c r="I275" s="1">
         <v>6</v>
       </c>
-      <c r="J275" s="6"/>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D276" s="1">
         <v>8</v>
@@ -8798,17 +8517,16 @@
       <c r="I276" s="1">
         <v>6</v>
       </c>
-      <c r="J276" s="6"/>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D277" s="1">
         <v>8</v>
@@ -8828,17 +8546,16 @@
       <c r="I277" s="1">
         <v>6</v>
       </c>
-      <c r="J277" s="6"/>
-    </row>
-    <row r="278" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="278" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="2">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D278" s="2">
         <v>8</v>
@@ -8858,17 +8575,16 @@
       <c r="I278" s="2">
         <v>6</v>
       </c>
-      <c r="J278" s="4"/>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D279" s="1">
         <v>8</v>
@@ -8888,17 +8604,16 @@
       <c r="I279" s="1">
         <v>6</v>
       </c>
-      <c r="J279" s="6"/>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D280" s="1">
         <v>8</v>
@@ -8918,17 +8633,16 @@
       <c r="I280" s="1">
         <v>6</v>
       </c>
-      <c r="J280" s="6"/>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D281" s="1">
         <v>8</v>
@@ -8948,17 +8662,16 @@
       <c r="I281" s="1">
         <v>6</v>
       </c>
-      <c r="J281" s="6"/>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D282" s="1">
         <v>8</v>
@@ -8978,17 +8691,16 @@
       <c r="I282" s="1">
         <v>6</v>
       </c>
-      <c r="J282" s="6"/>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D283" s="1">
         <v>8</v>
@@ -9008,17 +8720,16 @@
       <c r="I283" s="1">
         <v>6</v>
       </c>
-      <c r="J283" s="6"/>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D284" s="1">
         <v>8</v>
@@ -9038,17 +8749,16 @@
       <c r="I284" s="1">
         <v>6</v>
       </c>
-      <c r="J284" s="6"/>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D285" s="1">
         <v>8</v>
@@ -9068,17 +8778,16 @@
       <c r="I285" s="1">
         <v>6</v>
       </c>
-      <c r="J285" s="6"/>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D286" s="1">
         <v>8</v>
@@ -9098,17 +8807,16 @@
       <c r="I286" s="1">
         <v>6</v>
       </c>
-      <c r="J286" s="6"/>
-    </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D287" s="1">
         <v>8</v>
@@ -9128,17 +8836,16 @@
       <c r="I287" s="1">
         <v>6</v>
       </c>
-      <c r="J287" s="6"/>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D288" s="1">
         <v>8</v>
@@ -9158,17 +8865,16 @@
       <c r="I288" s="1">
         <v>6</v>
       </c>
-      <c r="J288" s="6"/>
-    </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D289" s="1">
         <v>8</v>
@@ -9188,17 +8894,16 @@
       <c r="I289" s="1">
         <v>6</v>
       </c>
-      <c r="J289" s="6"/>
-    </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D290" s="1">
         <v>8</v>
@@ -9218,17 +8923,16 @@
       <c r="I290" s="1">
         <v>6</v>
       </c>
-      <c r="J290" s="6"/>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D291" s="1">
         <v>8</v>
@@ -9248,17 +8952,16 @@
       <c r="I291" s="1">
         <v>6</v>
       </c>
-      <c r="J291" s="6"/>
-    </row>
-    <row r="292" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="292" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="2">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D292" s="2">
         <v>8</v>
@@ -9278,17 +8981,16 @@
       <c r="I292" s="2">
         <v>6</v>
       </c>
-      <c r="J292" s="4"/>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D293" s="1">
         <v>8</v>
@@ -9308,17 +9010,16 @@
       <c r="I293" s="1">
         <v>6</v>
       </c>
-      <c r="J293" s="6"/>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D294" s="1">
         <v>8</v>
@@ -9338,17 +9039,16 @@
       <c r="I294" s="1">
         <v>6</v>
       </c>
-      <c r="J294" s="6"/>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D295" s="1">
         <v>8</v>
@@ -9368,17 +9068,16 @@
       <c r="I295" s="1">
         <v>6</v>
       </c>
-      <c r="J295" s="6"/>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D296" s="1">
         <v>8</v>
@@ -9398,17 +9097,16 @@
       <c r="I296" s="1">
         <v>6</v>
       </c>
-      <c r="J296" s="6"/>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D297" s="1">
         <v>8</v>
@@ -9428,17 +9126,16 @@
       <c r="I297" s="1">
         <v>6</v>
       </c>
-      <c r="J297" s="6"/>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D298" s="1">
         <v>8</v>
@@ -9458,17 +9155,16 @@
       <c r="I298" s="1">
         <v>6</v>
       </c>
-      <c r="J298" s="6"/>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D299" s="1">
         <v>8</v>
@@ -9488,17 +9184,16 @@
       <c r="I299" s="1">
         <v>6</v>
       </c>
-      <c r="J299" s="6"/>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D300" s="1">
         <v>8</v>
@@ -9518,17 +9213,16 @@
       <c r="I300" s="1">
         <v>6</v>
       </c>
-      <c r="J300" s="6"/>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D301" s="1">
         <v>8</v>
@@ -9548,17 +9242,16 @@
       <c r="I301" s="1">
         <v>6</v>
       </c>
-      <c r="J301" s="6"/>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D302" s="1">
         <v>8</v>
@@ -9578,17 +9271,16 @@
       <c r="I302" s="1">
         <v>6</v>
       </c>
-      <c r="J302" s="6"/>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D303" s="1">
         <v>8</v>
@@ -9608,17 +9300,16 @@
       <c r="I303" s="1">
         <v>6</v>
       </c>
-      <c r="J303" s="6"/>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D304" s="1">
         <v>8</v>
@@ -9638,17 +9329,16 @@
       <c r="I304" s="1">
         <v>6</v>
       </c>
-      <c r="J304" s="6"/>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D305" s="1">
         <v>8</v>
@@ -9668,17 +9358,16 @@
       <c r="I305" s="1">
         <v>6</v>
       </c>
-      <c r="J305" s="6"/>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D306" s="1">
         <v>8</v>
@@ -9698,17 +9387,16 @@
       <c r="I306" s="1">
         <v>6</v>
       </c>
-      <c r="J306" s="6"/>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D307" s="1">
         <v>8</v>
@@ -9728,17 +9416,16 @@
       <c r="I307" s="1">
         <v>6</v>
       </c>
-      <c r="J307" s="6"/>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D308" s="1">
         <v>8</v>
@@ -9758,17 +9445,16 @@
       <c r="I308" s="1">
         <v>6</v>
       </c>
-      <c r="J308" s="6"/>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D309" s="1">
         <v>8</v>
@@ -9788,17 +9474,16 @@
       <c r="I309" s="1">
         <v>6</v>
       </c>
-      <c r="J309" s="6"/>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D310" s="1">
         <v>8</v>
@@ -9818,17 +9503,16 @@
       <c r="I310" s="1">
         <v>6</v>
       </c>
-      <c r="J310" s="6"/>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D311" s="1">
         <v>8</v>
@@ -9848,17 +9532,16 @@
       <c r="I311" s="1">
         <v>6</v>
       </c>
-      <c r="J311" s="6"/>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D312" s="1">
         <v>8</v>
@@ -9878,17 +9561,16 @@
       <c r="I312" s="1">
         <v>6</v>
       </c>
-      <c r="J312" s="6"/>
-    </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D313" s="1">
         <v>8</v>
@@ -9908,17 +9590,16 @@
       <c r="I313" s="1">
         <v>6</v>
       </c>
-      <c r="J313" s="6"/>
-    </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D314" s="1">
         <v>8</v>
@@ -9938,17 +9619,16 @@
       <c r="I314" s="1">
         <v>6</v>
       </c>
-      <c r="J314" s="6"/>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D315" s="1">
         <v>8</v>
@@ -9968,17 +9648,16 @@
       <c r="I315" s="1">
         <v>6</v>
       </c>
-      <c r="J315" s="6"/>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D316" s="1">
         <v>8</v>
@@ -9998,17 +9677,16 @@
       <c r="I316" s="1">
         <v>6</v>
       </c>
-      <c r="J316" s="6"/>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D317" s="1">
         <v>8</v>
@@ -10028,17 +9706,16 @@
       <c r="I317" s="1">
         <v>6</v>
       </c>
-      <c r="J317" s="6"/>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D318" s="1">
         <v>8</v>
@@ -10058,17 +9735,16 @@
       <c r="I318" s="1">
         <v>6</v>
       </c>
-      <c r="J318" s="6"/>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D319" s="1">
         <v>8</v>
@@ -10088,17 +9764,16 @@
       <c r="I319" s="1">
         <v>6</v>
       </c>
-      <c r="J319" s="6"/>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D320" s="1">
         <v>8</v>
@@ -10118,17 +9793,16 @@
       <c r="I320" s="1">
         <v>6</v>
       </c>
-      <c r="J320" s="6"/>
-    </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D321" s="1">
         <v>8</v>
@@ -10148,17 +9822,16 @@
       <c r="I321" s="1">
         <v>6</v>
       </c>
-      <c r="J321" s="6"/>
-    </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D322" s="1">
         <v>8</v>
@@ -10178,17 +9851,16 @@
       <c r="I322" s="1">
         <v>6</v>
       </c>
-      <c r="J322" s="6"/>
-    </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D323" s="1">
         <v>8</v>
@@ -10208,17 +9880,16 @@
       <c r="I323" s="1">
         <v>6</v>
       </c>
-      <c r="J323" s="6"/>
-    </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D324" s="1">
         <v>8</v>
@@ -10238,17 +9909,16 @@
       <c r="I324" s="1">
         <v>6</v>
       </c>
-      <c r="J324" s="6"/>
-    </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D325" s="1">
         <v>8</v>
@@ -10268,17 +9938,16 @@
       <c r="I325" s="1">
         <v>6</v>
       </c>
-      <c r="J325" s="6"/>
-    </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D326" s="1">
         <v>8</v>
@@ -10298,17 +9967,16 @@
       <c r="I326" s="1">
         <v>6</v>
       </c>
-      <c r="J326" s="6"/>
-    </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D327" s="1">
         <v>8</v>
@@ -10328,17 +9996,16 @@
       <c r="I327" s="1">
         <v>6</v>
       </c>
-      <c r="J327" s="6"/>
-    </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D328" s="1">
         <v>8</v>
@@ -10358,17 +10025,16 @@
       <c r="I328" s="1">
         <v>6</v>
       </c>
-      <c r="J328" s="6"/>
-    </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D329" s="1">
         <v>8</v>
@@ -10388,17 +10054,16 @@
       <c r="I329" s="1">
         <v>6</v>
       </c>
-      <c r="J329" s="6"/>
-    </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D330" s="1">
         <v>8</v>
@@ -10418,17 +10083,16 @@
       <c r="I330" s="1">
         <v>6</v>
       </c>
-      <c r="J330" s="6"/>
-    </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D331" s="1">
         <v>8</v>
@@ -10448,17 +10112,16 @@
       <c r="I331" s="1">
         <v>6</v>
       </c>
-      <c r="J331" s="6"/>
-    </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D332" s="1">
         <v>8</v>
@@ -10478,17 +10141,16 @@
       <c r="I332" s="1">
         <v>6</v>
       </c>
-      <c r="J332" s="6"/>
-    </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D333" s="1">
         <v>8</v>
@@ -10508,17 +10170,16 @@
       <c r="I333" s="1">
         <v>6</v>
       </c>
-      <c r="J333" s="6"/>
-    </row>
-    <row r="334" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="334" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="2">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D334" s="2">
         <v>8</v>
@@ -10538,17 +10199,16 @@
       <c r="I334" s="2">
         <v>6</v>
       </c>
-      <c r="J334" s="4"/>
-    </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D335" s="1">
         <v>8</v>
@@ -10568,17 +10228,16 @@
       <c r="I335" s="1">
         <v>6</v>
       </c>
-      <c r="J335" s="6"/>
-    </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D336" s="1">
         <v>8</v>
@@ -10598,17 +10257,16 @@
       <c r="I336" s="1">
         <v>6</v>
       </c>
-      <c r="J336" s="6"/>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D337" s="1">
         <v>8</v>
@@ -10628,7 +10286,6 @@
       <c r="I337" s="1">
         <v>6</v>
       </c>
-      <c r="J337" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
